--- a/src/main/resources/static/modelexcel/updatetemlate.xlsx
+++ b/src/main/resources/static/modelexcel/updatetemlate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="incidentData" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -88,6 +88,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -104,109 +170,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -216,28 +179,65 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -260,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +485,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -508,17 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,15 +558,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -551,156 +566,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,10 +1110,10 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
@@ -1125,7 +1125,7 @@
     <col min="10" max="10" width="20" style="1" customWidth="1"/>
     <col min="11" max="12" width="25" style="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88888888888889" style="1"/>
+    <col min="14" max="16384" width="8.88571428571429" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:17">
@@ -1189,14 +1189,14 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576">
-      <formula1>"停运,供电, 设备故障, 网络联通, 网络广电, 网络移动, 正在维修"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 P7 Q2:Q6 Q8:Q65536">
       <formula1>"新增"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
-      <formula1>"三棱,易华录,华迪,广宁,博山大队,张店大队,淄川大队,临淄大队,周村大队,高青大队,沂源大队,高新区大队,文昌湖大队,已出质保"</formula1>
+      <formula1>"三棱,易华录,华迪,广宁,张店大队,淄川大队,博山大队,周村大队,临淄大队,桓台大队,沂源大队,高青大队,高新区大队,文昌湖大队,已出质保"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576">
+      <formula1>"停运,供电, 设备故障, 网络联通, 网络广电, 网络移动, 正在维修"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P6 P8:P1048576">
       <formula1>"海康平台,支队运维办"</formula1>
